--- a/data/price_data_backup.xlsx
+++ b/data/price_data_backup.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="价格数据" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="整合数据" state="visible" r:id="rId5"/>
+    <sheet name="价格数据" sheetId="1" r:id="rId1"/>
+    <sheet name="整合数据" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="157">
   <si>
     <t>序号</t>
   </si>
@@ -77,7 +90,7 @@
     <t>材料费4</t>
   </si>
   <si>
-    <t>含税价格/单位</t>
+    <t>税前单价</t>
   </si>
   <si>
     <t>套餐</t>
@@ -353,7 +366,7 @@
     <t>水电线路改造（格局变动：三件套+暖气片+简单排气）</t>
   </si>
   <si>
-    <t>浴室瓷砖（小面积）</t>
+    <t>浴室瓷砖（标准）</t>
   </si>
   <si>
     <t>卫浴三件套安装</t>
@@ -491,25 +504,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -517,24 +873,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -860,19 +1502,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AA128"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="U119" sqref="U119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="20.0857142857143" customWidth="1"/>
+    <col min="6" max="6" width="35.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -952,7 +1595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1035,7 +1678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1118,7 +1761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1171,7 +1814,7 @@
         <v>23</v>
       </c>
       <c r="R4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S4">
         <v>21</v>
@@ -1189,19 +1832,20 @@
         <v>23</v>
       </c>
       <c r="X4">
-        <v>66</v>
+        <f>R4+S4</f>
+        <v>67</v>
       </c>
       <c r="Y4" t="s">
         <v>23</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1272,6 +1916,7 @@
         <v>23</v>
       </c>
       <c r="X5">
+        <f t="shared" ref="X5:X11" si="0">R5+S5</f>
         <v>71.25</v>
       </c>
       <c r="Y5" t="s">
@@ -1284,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1355,6 +2000,7 @@
         <v>23</v>
       </c>
       <c r="X6">
+        <f t="shared" si="0"/>
         <v>612.5</v>
       </c>
       <c r="Y6" t="s">
@@ -1367,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1438,6 +2084,7 @@
         <v>23</v>
       </c>
       <c r="X7">
+        <f t="shared" si="0"/>
         <v>857.5</v>
       </c>
       <c r="Y7" t="s">
@@ -1450,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1521,19 +2168,20 @@
         <v>23</v>
       </c>
       <c r="X8">
+        <f t="shared" si="0"/>
         <v>562.5</v>
       </c>
       <c r="Y8" t="s">
         <v>23</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1604,6 +2252,7 @@
         <v>23</v>
       </c>
       <c r="X9">
+        <f t="shared" si="0"/>
         <v>625</v>
       </c>
       <c r="Y9" t="s">
@@ -1616,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1687,19 +2336,20 @@
         <v>23</v>
       </c>
       <c r="X10">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="Y10" t="s">
         <v>23</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1770,19 +2420,20 @@
         <v>23</v>
       </c>
       <c r="X11">
+        <f t="shared" si="0"/>
         <v>334</v>
       </c>
       <c r="Y11" t="s">
         <v>23</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1865,7 +2516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1936,19 +2587,20 @@
         <v>23</v>
       </c>
       <c r="X13">
+        <f>R13+S13</f>
         <v>2.4</v>
       </c>
       <c r="Y13" t="s">
         <v>23</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>10</v>
       </c>
@@ -2019,6 +2671,7 @@
         <v>23</v>
       </c>
       <c r="X14">
+        <f t="shared" ref="X14:X19" si="1">R14+S14</f>
         <v>7.2</v>
       </c>
       <c r="Y14" t="s">
@@ -2031,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>11</v>
       </c>
@@ -2102,19 +2755,20 @@
         <v>23</v>
       </c>
       <c r="X15">
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
       <c r="Y15" t="s">
         <v>23</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>12</v>
       </c>
@@ -2185,19 +2839,20 @@
         <v>23</v>
       </c>
       <c r="X16">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="Y16" t="s">
         <v>23</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>13</v>
       </c>
@@ -2268,6 +2923,7 @@
         <v>23</v>
       </c>
       <c r="X17">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="Y17" t="s">
@@ -2280,7 +2936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>14</v>
       </c>
@@ -2351,19 +3007,20 @@
         <v>23</v>
       </c>
       <c r="X18">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="Y18" t="s">
         <v>23</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>15</v>
       </c>
@@ -2434,19 +3091,20 @@
         <v>23</v>
       </c>
       <c r="X19">
+        <f t="shared" si="1"/>
         <v>2.925</v>
       </c>
       <c r="Y19" t="s">
         <v>23</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2516,9 +3174,7 @@
       <c r="W20" t="s">
         <v>23</v>
       </c>
-      <c r="X20" t="s">
-        <v>23</v>
-      </c>
+      <c r="X20"/>
       <c r="Y20" t="s">
         <v>23</v>
       </c>
@@ -2529,7 +3185,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>16</v>
       </c>
@@ -2600,6 +3256,7 @@
         <v>23</v>
       </c>
       <c r="X21">
+        <f t="shared" ref="X20:X51" si="2">R21+S21</f>
         <v>8.4</v>
       </c>
       <c r="Y21" t="s">
@@ -2612,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>17</v>
       </c>
@@ -2683,19 +3340,20 @@
         <v>23</v>
       </c>
       <c r="X22">
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="Y22" t="s">
         <v>23</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>18</v>
       </c>
@@ -2766,6 +3424,7 @@
         <v>23</v>
       </c>
       <c r="X23">
+        <f t="shared" si="2"/>
         <v>52.2</v>
       </c>
       <c r="Y23" t="s">
@@ -2778,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>19</v>
       </c>
@@ -2849,6 +3508,7 @@
         <v>23</v>
       </c>
       <c r="X24">
+        <f t="shared" si="2"/>
         <v>90.75</v>
       </c>
       <c r="Y24" t="s">
@@ -2861,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>20</v>
       </c>
@@ -2932,19 +3592,20 @@
         <v>23</v>
       </c>
       <c r="X25">
+        <f t="shared" si="2"/>
         <v>28.675</v>
       </c>
       <c r="Y25" t="s">
         <v>23</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3014,9 +3675,7 @@
       <c r="W26" t="s">
         <v>23</v>
       </c>
-      <c r="X26" t="s">
-        <v>23</v>
-      </c>
+      <c r="X26"/>
       <c r="Y26" t="s">
         <v>23</v>
       </c>
@@ -3027,7 +3686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>21</v>
       </c>
@@ -3098,19 +3757,20 @@
         <v>23</v>
       </c>
       <c r="X27">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="Y27" t="s">
         <v>23</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>22</v>
       </c>
@@ -3181,19 +3841,20 @@
         <v>23</v>
       </c>
       <c r="X28">
+        <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
       <c r="Y28" t="s">
         <v>23</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>23</v>
       </c>
@@ -3264,6 +3925,7 @@
         <v>23</v>
       </c>
       <c r="X29">
+        <f t="shared" si="2"/>
         <v>12.725</v>
       </c>
       <c r="Y29" t="s">
@@ -3276,7 +3938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>24</v>
       </c>
@@ -3347,19 +4009,20 @@
         <v>23</v>
       </c>
       <c r="X30">
+        <f t="shared" si="2"/>
         <v>15.45</v>
       </c>
       <c r="Y30" t="s">
         <v>23</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>25</v>
       </c>
@@ -3430,6 +4093,7 @@
         <v>23</v>
       </c>
       <c r="X31">
+        <f t="shared" si="2"/>
         <v>27.5</v>
       </c>
       <c r="Y31" t="s">
@@ -3442,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>26</v>
       </c>
@@ -3513,6 +4177,7 @@
         <v>23</v>
       </c>
       <c r="X32">
+        <f t="shared" si="2"/>
         <v>137.5</v>
       </c>
       <c r="Y32" t="s">
@@ -3525,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -3595,9 +4260,7 @@
       <c r="W33" t="s">
         <v>23</v>
       </c>
-      <c r="X33" t="s">
-        <v>23</v>
-      </c>
+      <c r="X33"/>
       <c r="Y33" t="s">
         <v>23</v>
       </c>
@@ -3608,7 +4271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -3678,9 +4341,7 @@
       <c r="W34" t="s">
         <v>23</v>
       </c>
-      <c r="X34" t="s">
-        <v>23</v>
-      </c>
+      <c r="X34"/>
       <c r="Y34" t="s">
         <v>23</v>
       </c>
@@ -3691,7 +4352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>27</v>
       </c>
@@ -3762,19 +4423,20 @@
         <v>23</v>
       </c>
       <c r="X35">
+        <f t="shared" si="2"/>
         <v>21.15</v>
       </c>
       <c r="Y35" t="s">
         <v>23</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>28</v>
       </c>
@@ -3845,7 +4507,8 @@
         <v>23</v>
       </c>
       <c r="X36">
-        <v>23.549999999999997</v>
+        <f t="shared" si="2"/>
+        <v>23.55</v>
       </c>
       <c r="Y36" t="s">
         <v>23</v>
@@ -3857,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>29</v>
       </c>
@@ -3928,6 +4591,7 @@
         <v>23</v>
       </c>
       <c r="X37">
+        <f t="shared" si="2"/>
         <v>3.525</v>
       </c>
       <c r="Y37" t="s">
@@ -3940,7 +4604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>30</v>
       </c>
@@ -4011,7 +4675,8 @@
         <v>23</v>
       </c>
       <c r="X38">
-        <v>15.299999999999999</v>
+        <f t="shared" si="2"/>
+        <v>15.3</v>
       </c>
       <c r="Y38" t="s">
         <v>23</v>
@@ -4023,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>31</v>
       </c>
@@ -4094,19 +4759,20 @@
         <v>23</v>
       </c>
       <c r="X39">
+        <f t="shared" si="2"/>
         <v>2.73</v>
       </c>
       <c r="Y39" t="s">
         <v>23</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>32</v>
       </c>
@@ -4177,19 +4843,20 @@
         <v>23</v>
       </c>
       <c r="X40">
-        <v>7.380000000000001</v>
+        <f t="shared" si="2"/>
+        <v>7.38</v>
       </c>
       <c r="Y40" t="s">
         <v>23</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>33</v>
       </c>
@@ -4260,6 +4927,7 @@
         <v>23</v>
       </c>
       <c r="X41">
+        <f t="shared" si="2"/>
         <v>5.46</v>
       </c>
       <c r="Y41" t="s">
@@ -4272,7 +4940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>34</v>
       </c>
@@ -4343,6 +5011,7 @@
         <v>23</v>
       </c>
       <c r="X42">
+        <f t="shared" si="2"/>
         <v>3.21</v>
       </c>
       <c r="Y42" t="s">
@@ -4355,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>35</v>
       </c>
@@ -4426,7 +5095,8 @@
         <v>23</v>
       </c>
       <c r="X43">
-        <v>7.859999999999999</v>
+        <f t="shared" si="2"/>
+        <v>7.86</v>
       </c>
       <c r="Y43" t="s">
         <v>23</v>
@@ -4438,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>36</v>
       </c>
@@ -4509,7 +5179,8 @@
         <v>23</v>
       </c>
       <c r="X44">
-        <v>5.9399999999999995</v>
+        <f t="shared" si="2"/>
+        <v>5.94</v>
       </c>
       <c r="Y44" t="s">
         <v>23</v>
@@ -4521,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -4591,9 +5262,7 @@
       <c r="W45" t="s">
         <v>23</v>
       </c>
-      <c r="X45" t="s">
-        <v>23</v>
-      </c>
+      <c r="X45"/>
       <c r="Y45" t="s">
         <v>23</v>
       </c>
@@ -4604,7 +5273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -4674,9 +5343,7 @@
       <c r="W46" t="s">
         <v>23</v>
       </c>
-      <c r="X46" t="s">
-        <v>23</v>
-      </c>
+      <c r="X46"/>
       <c r="Y46" t="s">
         <v>23</v>
       </c>
@@ -4687,7 +5354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>37</v>
       </c>
@@ -4758,19 +5425,20 @@
         <v>23</v>
       </c>
       <c r="X47">
+        <f t="shared" si="2"/>
         <v>60.4</v>
       </c>
       <c r="Y47" t="s">
         <v>23</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>38</v>
       </c>
@@ -4841,6 +5509,7 @@
         <v>23</v>
       </c>
       <c r="X48">
+        <f t="shared" si="2"/>
         <v>73.4</v>
       </c>
       <c r="Y48" t="s">
@@ -4853,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>39</v>
       </c>
@@ -4924,6 +5593,7 @@
         <v>23</v>
       </c>
       <c r="X49">
+        <f t="shared" si="2"/>
         <v>66.9</v>
       </c>
       <c r="Y49" t="s">
@@ -4936,7 +5606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>40</v>
       </c>
@@ -5007,6 +5677,7 @@
         <v>23</v>
       </c>
       <c r="X50">
+        <f t="shared" si="2"/>
         <v>16.15</v>
       </c>
       <c r="Y50" t="s">
@@ -5019,7 +5690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -5089,9 +5760,7 @@
       <c r="W51" t="s">
         <v>23</v>
       </c>
-      <c r="X51" t="s">
-        <v>23</v>
-      </c>
+      <c r="X51"/>
       <c r="Y51" t="s">
         <v>23</v>
       </c>
@@ -5102,7 +5771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>41</v>
       </c>
@@ -5173,19 +5842,20 @@
         <v>23</v>
       </c>
       <c r="X52">
+        <f t="shared" ref="X52:X83" si="3">R52+S52</f>
         <v>65.7</v>
       </c>
       <c r="Y52" t="s">
         <v>23</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>42</v>
       </c>
@@ -5256,6 +5926,7 @@
         <v>23</v>
       </c>
       <c r="X53">
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="Y53" t="s">
@@ -5268,7 +5939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>43</v>
       </c>
@@ -5339,6 +6010,7 @@
         <v>23</v>
       </c>
       <c r="X54">
+        <f t="shared" si="3"/>
         <v>84.1</v>
       </c>
       <c r="Y54" t="s">
@@ -5351,7 +6023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>44</v>
       </c>
@@ -5422,6 +6094,7 @@
         <v>23</v>
       </c>
       <c r="X55">
+        <f t="shared" si="3"/>
         <v>133.1</v>
       </c>
       <c r="Y55" t="s">
@@ -5434,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -5504,9 +6177,7 @@
       <c r="W56" t="s">
         <v>23</v>
       </c>
-      <c r="X56" t="s">
-        <v>23</v>
-      </c>
+      <c r="X56"/>
       <c r="Y56" t="s">
         <v>23</v>
       </c>
@@ -5517,7 +6188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -5587,9 +6258,7 @@
       <c r="W57" t="s">
         <v>23</v>
       </c>
-      <c r="X57" t="s">
-        <v>23</v>
-      </c>
+      <c r="X57"/>
       <c r="Y57" t="s">
         <v>23</v>
       </c>
@@ -5600,7 +6269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>45</v>
       </c>
@@ -5671,6 +6340,7 @@
         <v>23</v>
       </c>
       <c r="X58">
+        <f t="shared" si="3"/>
         <v>43.4</v>
       </c>
       <c r="Y58" t="s">
@@ -5683,7 +6353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>46</v>
       </c>
@@ -5754,6 +6424,7 @@
         <v>23</v>
       </c>
       <c r="X59">
+        <f t="shared" si="3"/>
         <v>26.3</v>
       </c>
       <c r="Y59" t="s">
@@ -5766,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>47</v>
       </c>
@@ -5837,6 +6508,7 @@
         <v>23</v>
       </c>
       <c r="X60">
+        <f t="shared" si="3"/>
         <v>66.75</v>
       </c>
       <c r="Y60" t="s">
@@ -5849,7 +6521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>48</v>
       </c>
@@ -5920,6 +6592,7 @@
         <v>23</v>
       </c>
       <c r="X61">
+        <f t="shared" si="3"/>
         <v>35.9</v>
       </c>
       <c r="Y61" t="s">
@@ -5932,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>49</v>
       </c>
@@ -6003,19 +6676,20 @@
         <v>23</v>
       </c>
       <c r="X62">
+        <f t="shared" si="3"/>
         <v>35.65</v>
       </c>
       <c r="Y62" t="s">
         <v>23</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>50</v>
       </c>
@@ -6086,19 +6760,20 @@
         <v>23</v>
       </c>
       <c r="X63">
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="Y63" t="s">
         <v>23</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>51</v>
       </c>
@@ -6169,6 +6844,7 @@
         <v>23</v>
       </c>
       <c r="X64">
+        <f t="shared" si="3"/>
         <v>140.25</v>
       </c>
       <c r="Y64" t="s">
@@ -6181,7 +6857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -6251,9 +6927,7 @@
       <c r="W65" t="s">
         <v>23</v>
       </c>
-      <c r="X65" t="s">
-        <v>23</v>
-      </c>
+      <c r="X65"/>
       <c r="Y65" t="s">
         <v>23</v>
       </c>
@@ -6264,7 +6938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>52</v>
       </c>
@@ -6335,19 +7009,20 @@
         <v>23</v>
       </c>
       <c r="X66">
+        <f t="shared" si="3"/>
         <v>56.25</v>
       </c>
       <c r="Y66" t="s">
         <v>23</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>53</v>
       </c>
@@ -6418,19 +7093,20 @@
         <v>23</v>
       </c>
       <c r="X67">
+        <f t="shared" si="3"/>
         <v>156</v>
       </c>
       <c r="Y67" t="s">
         <v>23</v>
       </c>
       <c r="Z67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>54</v>
       </c>
@@ -6501,6 +7177,7 @@
         <v>23</v>
       </c>
       <c r="X68">
+        <f t="shared" si="3"/>
         <v>53.5</v>
       </c>
       <c r="Y68" t="s">
@@ -6513,7 +7190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>55</v>
       </c>
@@ -6584,6 +7261,7 @@
         <v>23</v>
       </c>
       <c r="X69">
+        <f t="shared" si="3"/>
         <v>130.5</v>
       </c>
       <c r="Y69" t="s">
@@ -6596,7 +7274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -6666,9 +7344,7 @@
       <c r="W70" t="s">
         <v>23</v>
       </c>
-      <c r="X70" t="s">
-        <v>23</v>
-      </c>
+      <c r="X70"/>
       <c r="Y70" t="s">
         <v>23</v>
       </c>
@@ -6679,7 +7355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -6749,9 +7425,7 @@
       <c r="W71" t="s">
         <v>23</v>
       </c>
-      <c r="X71" t="s">
-        <v>23</v>
-      </c>
+      <c r="X71"/>
       <c r="Y71" t="s">
         <v>23</v>
       </c>
@@ -6762,7 +7436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>56</v>
       </c>
@@ -6833,19 +7507,20 @@
         <v>23</v>
       </c>
       <c r="X72">
+        <f t="shared" si="3"/>
         <v>73.4</v>
       </c>
       <c r="Y72" t="s">
         <v>23</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>57</v>
       </c>
@@ -6916,6 +7591,7 @@
         <v>23</v>
       </c>
       <c r="X73">
+        <f t="shared" si="3"/>
         <v>71.25</v>
       </c>
       <c r="Y73" t="s">
@@ -6928,7 +7604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>58</v>
       </c>
@@ -6999,6 +7675,7 @@
         <v>23</v>
       </c>
       <c r="X74">
+        <f t="shared" si="3"/>
         <v>214.75</v>
       </c>
       <c r="Y74" t="s">
@@ -7011,7 +7688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>59</v>
       </c>
@@ -7082,6 +7759,7 @@
         <v>23</v>
       </c>
       <c r="X75">
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="Y75" t="s">
@@ -7094,7 +7772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -7164,9 +7842,7 @@
       <c r="W76" t="s">
         <v>23</v>
       </c>
-      <c r="X76" t="s">
-        <v>23</v>
-      </c>
+      <c r="X76"/>
       <c r="Y76" t="s">
         <v>23</v>
       </c>
@@ -7177,7 +7853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -7247,9 +7923,7 @@
       <c r="W77" t="s">
         <v>23</v>
       </c>
-      <c r="X77" t="s">
-        <v>23</v>
-      </c>
+      <c r="X77"/>
       <c r="Y77" t="s">
         <v>23</v>
       </c>
@@ -7260,7 +7934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>60</v>
       </c>
@@ -7331,19 +8005,20 @@
         <v>23</v>
       </c>
       <c r="X78">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="Y78" t="s">
         <v>23</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>61</v>
       </c>
@@ -7414,19 +8089,20 @@
         <v>23</v>
       </c>
       <c r="X79">
+        <f t="shared" si="3"/>
         <v>18.75</v>
       </c>
       <c r="Y79" t="s">
         <v>23</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>62</v>
       </c>
@@ -7497,6 +8173,7 @@
         <v>23</v>
       </c>
       <c r="X80">
+        <f t="shared" si="3"/>
         <v>2230</v>
       </c>
       <c r="Y80" t="s">
@@ -7509,7 +8186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>63</v>
       </c>
@@ -7580,19 +8257,20 @@
         <v>23</v>
       </c>
       <c r="X81">
+        <f t="shared" si="3"/>
         <v>3345</v>
       </c>
       <c r="Y81" t="s">
         <v>23</v>
       </c>
       <c r="Z81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>64</v>
       </c>
@@ -7663,19 +8341,20 @@
         <v>23</v>
       </c>
       <c r="X82">
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="Y82" t="s">
         <v>23</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>65</v>
       </c>
@@ -7746,19 +8425,20 @@
         <v>23</v>
       </c>
       <c r="X83">
+        <f t="shared" si="3"/>
         <v>1083</v>
       </c>
       <c r="Y83" t="s">
         <v>23</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>66</v>
       </c>
@@ -7829,19 +8509,20 @@
         <v>23</v>
       </c>
       <c r="X84">
+        <f t="shared" ref="X84:X115" si="4">R84+S84</f>
         <v>112.9</v>
       </c>
       <c r="Y84" t="s">
         <v>23</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>67</v>
       </c>
@@ -7912,19 +8593,20 @@
         <v>23</v>
       </c>
       <c r="X85">
+        <f t="shared" si="4"/>
         <v>61.7</v>
       </c>
       <c r="Y85" t="s">
         <v>23</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>68</v>
       </c>
@@ -7995,19 +8677,20 @@
         <v>23</v>
       </c>
       <c r="X86">
+        <f t="shared" si="4"/>
         <v>530</v>
       </c>
       <c r="Y86" t="s">
         <v>23</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>69</v>
       </c>
@@ -8078,19 +8761,20 @@
         <v>23</v>
       </c>
       <c r="X87">
+        <f t="shared" si="4"/>
         <v>213</v>
       </c>
       <c r="Y87" t="s">
         <v>23</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>70</v>
       </c>
@@ -8161,6 +8845,7 @@
         <v>23</v>
       </c>
       <c r="X88">
+        <f t="shared" si="4"/>
         <v>59.6</v>
       </c>
       <c r="Y88" t="s">
@@ -8170,10 +8855,10 @@
         <v>0</v>
       </c>
       <c r="AA88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>71</v>
       </c>
@@ -8244,6 +8929,7 @@
         <v>23</v>
       </c>
       <c r="X89">
+        <f t="shared" si="4"/>
         <v>745</v>
       </c>
       <c r="Y89" t="s">
@@ -8256,7 +8942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>72</v>
       </c>
@@ -8327,6 +9013,7 @@
         <v>23</v>
       </c>
       <c r="X90">
+        <f t="shared" si="4"/>
         <v>1234</v>
       </c>
       <c r="Y90" t="s">
@@ -8339,7 +9026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>73</v>
       </c>
@@ -8410,6 +9097,7 @@
         <v>23</v>
       </c>
       <c r="X91">
+        <f t="shared" si="4"/>
         <v>413.5</v>
       </c>
       <c r="Y91" t="s">
@@ -8422,7 +9110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>74</v>
       </c>
@@ -8493,6 +9181,7 @@
         <v>23</v>
       </c>
       <c r="X92">
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="Y92" t="s">
@@ -8505,7 +9194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>75</v>
       </c>
@@ -8576,6 +9265,7 @@
         <v>23</v>
       </c>
       <c r="X93">
+        <f t="shared" si="4"/>
         <v>361</v>
       </c>
       <c r="Y93" t="s">
@@ -8588,7 +9278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -8658,9 +9348,7 @@
       <c r="W94" t="s">
         <v>23</v>
       </c>
-      <c r="X94" t="s">
-        <v>23</v>
-      </c>
+      <c r="X94"/>
       <c r="Y94" t="s">
         <v>23</v>
       </c>
@@ -8671,7 +9359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>76</v>
       </c>
@@ -8742,6 +9430,7 @@
         <v>23</v>
       </c>
       <c r="X95">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="Y95" t="s">
@@ -8754,7 +9443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>77</v>
       </c>
@@ -8825,6 +9514,7 @@
         <v>23</v>
       </c>
       <c r="X96">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="Y96" t="s">
@@ -8837,7 +9527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>78</v>
       </c>
@@ -8908,19 +9598,20 @@
         <v>23</v>
       </c>
       <c r="X97">
+        <f t="shared" si="4"/>
         <v>802.5</v>
       </c>
       <c r="Y97" t="s">
         <v>23</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>79</v>
       </c>
@@ -8991,6 +9682,7 @@
         <v>23</v>
       </c>
       <c r="X98">
+        <f t="shared" si="4"/>
         <v>1417.5</v>
       </c>
       <c r="Y98" t="s">
@@ -9003,7 +9695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>80</v>
       </c>
@@ -9074,6 +9766,7 @@
         <v>23</v>
       </c>
       <c r="X99">
+        <f t="shared" si="4"/>
         <v>65.75</v>
       </c>
       <c r="Y99" t="s">
@@ -9086,7 +9779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>81</v>
       </c>
@@ -9157,19 +9850,20 @@
         <v>23</v>
       </c>
       <c r="X100">
+        <f t="shared" si="4"/>
         <v>396.5</v>
       </c>
       <c r="Y100" t="s">
         <v>23</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>82</v>
       </c>
@@ -9240,19 +9934,20 @@
         <v>23</v>
       </c>
       <c r="X101">
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="Y101" t="s">
         <v>23</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>83</v>
       </c>
@@ -9323,6 +10018,7 @@
         <v>23</v>
       </c>
       <c r="X102">
+        <f t="shared" si="4"/>
         <v>206.4</v>
       </c>
       <c r="Y102" t="s">
@@ -9335,7 +10031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>84</v>
       </c>
@@ -9406,19 +10102,20 @@
         <v>23</v>
       </c>
       <c r="X103">
+        <f t="shared" si="4"/>
         <v>42.75</v>
       </c>
       <c r="Y103" t="s">
         <v>23</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>85</v>
       </c>
@@ -9489,19 +10186,20 @@
         <v>23</v>
       </c>
       <c r="X104">
+        <f t="shared" si="4"/>
         <v>70.9</v>
       </c>
       <c r="Y104" t="s">
         <v>23</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>86</v>
       </c>
@@ -9572,19 +10270,20 @@
         <v>23</v>
       </c>
       <c r="X105">
+        <f t="shared" si="4"/>
         <v>396.5</v>
       </c>
       <c r="Y105" t="s">
         <v>23</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -9654,9 +10353,7 @@
       <c r="W106" t="s">
         <v>23</v>
       </c>
-      <c r="X106" t="s">
-        <v>23</v>
-      </c>
+      <c r="X106"/>
       <c r="Y106" t="s">
         <v>23</v>
       </c>
@@ -9667,7 +10364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>87</v>
       </c>
@@ -9738,19 +10435,20 @@
         <v>23</v>
       </c>
       <c r="X107">
+        <f t="shared" si="4"/>
         <v>27.6</v>
       </c>
       <c r="Y107" t="s">
         <v>23</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>88</v>
       </c>
@@ -9821,19 +10519,20 @@
         <v>23</v>
       </c>
       <c r="X108">
+        <f t="shared" si="4"/>
         <v>21.6</v>
       </c>
       <c r="Y108" t="s">
         <v>23</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>89</v>
       </c>
@@ -9904,6 +10603,7 @@
         <v>23</v>
       </c>
       <c r="X109">
+        <f t="shared" si="4"/>
         <v>13.2</v>
       </c>
       <c r="Y109" t="s">
@@ -9916,7 +10616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>90</v>
       </c>
@@ -9987,19 +10687,20 @@
         <v>23</v>
       </c>
       <c r="X110">
+        <f t="shared" si="4"/>
         <v>1425</v>
       </c>
       <c r="Y110" t="s">
         <v>23</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>91</v>
       </c>
@@ -10070,6 +10771,7 @@
         <v>23</v>
       </c>
       <c r="X111">
+        <f t="shared" si="4"/>
         <v>24.725</v>
       </c>
       <c r="Y111" t="s">
@@ -10082,7 +10784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>92</v>
       </c>
@@ -10153,6 +10855,7 @@
         <v>23</v>
       </c>
       <c r="X112">
+        <f t="shared" si="4"/>
         <v>77.25</v>
       </c>
       <c r="Y112" t="s">
@@ -10165,7 +10868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>93</v>
       </c>
@@ -10236,6 +10939,7 @@
         <v>23</v>
       </c>
       <c r="X113">
+        <f t="shared" si="4"/>
         <v>63.9</v>
       </c>
       <c r="Y113" t="s">
@@ -10248,7 +10952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>94</v>
       </c>
@@ -10319,6 +11023,7 @@
         <v>23</v>
       </c>
       <c r="X114">
+        <f t="shared" si="4"/>
         <v>11.075</v>
       </c>
       <c r="Y114" t="s">
@@ -10331,7 +11036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>95</v>
       </c>
@@ -10402,6 +11107,7 @@
         <v>23</v>
       </c>
       <c r="X115">
+        <f t="shared" si="4"/>
         <v>12.325</v>
       </c>
       <c r="Y115" t="s">
@@ -10414,7 +11120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>96</v>
       </c>
@@ -10485,6 +11191,7 @@
         <v>23</v>
       </c>
       <c r="X116">
+        <f>R116+S116</f>
         <v>295.5</v>
       </c>
       <c r="Y116" t="s">
@@ -10497,7 +11204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>97</v>
       </c>
@@ -10568,6 +11275,7 @@
         <v>23</v>
       </c>
       <c r="X117">
+        <f>R117+S117</f>
         <v>229.5</v>
       </c>
       <c r="Y117" t="s">
@@ -10580,7 +11288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>98</v>
       </c>
@@ -10651,6 +11359,7 @@
         <v>23</v>
       </c>
       <c r="X118">
+        <f>R118+S118</f>
         <v>355.5</v>
       </c>
       <c r="Y118" t="s">
@@ -10663,7 +11372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>99</v>
       </c>
@@ -10734,6 +11443,7 @@
         <v>23</v>
       </c>
       <c r="X119">
+        <f>R119+S119</f>
         <v>112.5</v>
       </c>
       <c r="Y119" t="s">
@@ -10746,7 +11456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -10816,9 +11526,7 @@
       <c r="W120" t="s">
         <v>23</v>
       </c>
-      <c r="X120" t="s">
-        <v>23</v>
-      </c>
+      <c r="X120"/>
       <c r="Y120" t="s">
         <v>23</v>
       </c>
@@ -10829,7 +11537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>100</v>
       </c>
@@ -10900,7 +11608,8 @@
         <v>23</v>
       </c>
       <c r="X121">
-        <v>11.850000000000001</v>
+        <f>R121+S121</f>
+        <v>11.85</v>
       </c>
       <c r="Y121" t="s">
         <v>23</v>
@@ -10912,7 +11621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>101</v>
       </c>
@@ -10983,6 +11692,7 @@
         <v>23</v>
       </c>
       <c r="X122">
+        <f>R122+S122</f>
         <v>3.3</v>
       </c>
       <c r="Y122" t="s">
@@ -10995,7 +11705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>102</v>
       </c>
@@ -11066,6 +11776,7 @@
         <v>23</v>
       </c>
       <c r="X123">
+        <f>R123+S123</f>
         <v>25.8</v>
       </c>
       <c r="Y123" t="s">
@@ -11078,7 +11789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>103</v>
       </c>
@@ -11149,7 +11860,8 @@
         <v>23</v>
       </c>
       <c r="X124">
-        <v>30.900000000000002</v>
+        <f>R124+S124</f>
+        <v>30.9</v>
       </c>
       <c r="Y124" t="s">
         <v>23</v>
@@ -11161,7 +11873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>104</v>
       </c>
@@ -11232,6 +11944,7 @@
         <v>23</v>
       </c>
       <c r="X125">
+        <f>R125+S125</f>
         <v>19.05</v>
       </c>
       <c r="Y125" t="s">
@@ -11244,7 +11957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>105</v>
       </c>
@@ -11315,6 +12028,7 @@
         <v>23</v>
       </c>
       <c r="X126">
+        <f>R126+S126</f>
         <v>3.6</v>
       </c>
       <c r="Y126" t="s">
@@ -11327,7 +12041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>106</v>
       </c>
@@ -11398,6 +12112,7 @@
         <v>23</v>
       </c>
       <c r="X127">
+        <f>R127+S127</f>
         <v>96</v>
       </c>
       <c r="Y127" t="s">
@@ -11410,7 +12125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>107</v>
       </c>
@@ -11481,6 +12196,7 @@
         <v>23</v>
       </c>
       <c r="X128">
+        <f>R128+S128</f>
         <v>180</v>
       </c>
       <c r="Y128" t="s">
@@ -11495,24 +12211,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="25.4285714285714" customWidth="1"/>
     <col min="24" max="24" width="17.4285714285714" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/price_data_backup.xlsx
+++ b/data/price_data_backup.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="价格数据" sheetId="1" r:id="rId1"/>
-    <sheet name="整合数据" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="价格数据" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="整合数据" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="157">
   <si>
     <t>序号</t>
   </si>
@@ -504,368 +491,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -873,310 +517,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1502,20 +860,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="U119" sqref="U119"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="9"/>
   <cols>
     <col min="6" max="6" width="35.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1595,7 +952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1678,7 +1035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1761,7 +1118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1814,7 +1171,7 @@
         <v>23</v>
       </c>
       <c r="R4">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S4">
         <v>21</v>
@@ -1832,8 +1189,7 @@
         <v>23</v>
       </c>
       <c r="X4">
-        <f>R4+S4</f>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y4" t="s">
         <v>23</v>
@@ -1845,7 +1201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1916,7 +1272,6 @@
         <v>23</v>
       </c>
       <c r="X5">
-        <f t="shared" ref="X5:X11" si="0">R5+S5</f>
         <v>71.25</v>
       </c>
       <c r="Y5" t="s">
@@ -1929,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2000,7 +1355,6 @@
         <v>23</v>
       </c>
       <c r="X6">
-        <f t="shared" si="0"/>
         <v>612.5</v>
       </c>
       <c r="Y6" t="s">
@@ -2013,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2084,7 +1438,6 @@
         <v>23</v>
       </c>
       <c r="X7">
-        <f t="shared" si="0"/>
         <v>857.5</v>
       </c>
       <c r="Y7" t="s">
@@ -2097,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2168,7 +1521,6 @@
         <v>23</v>
       </c>
       <c r="X8">
-        <f t="shared" si="0"/>
         <v>562.5</v>
       </c>
       <c r="Y8" t="s">
@@ -2181,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2252,7 +1604,6 @@
         <v>23</v>
       </c>
       <c r="X9">
-        <f t="shared" si="0"/>
         <v>625</v>
       </c>
       <c r="Y9" t="s">
@@ -2265,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2336,7 +1687,6 @@
         <v>23</v>
       </c>
       <c r="X10">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="Y10" t="s">
@@ -2349,7 +1699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2420,7 +1770,6 @@
         <v>23</v>
       </c>
       <c r="X11">
-        <f t="shared" si="0"/>
         <v>334</v>
       </c>
       <c r="Y11" t="s">
@@ -2433,7 +1782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2516,7 +1865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2587,7 +1936,6 @@
         <v>23</v>
       </c>
       <c r="X13">
-        <f>R13+S13</f>
         <v>2.4</v>
       </c>
       <c r="Y13" t="s">
@@ -2600,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -2671,7 +2019,6 @@
         <v>23</v>
       </c>
       <c r="X14">
-        <f t="shared" ref="X14:X19" si="1">R14+S14</f>
         <v>7.2</v>
       </c>
       <c r="Y14" t="s">
@@ -2684,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -2755,7 +2102,6 @@
         <v>23</v>
       </c>
       <c r="X15">
-        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
       <c r="Y15" t="s">
@@ -2768,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -2839,7 +2185,6 @@
         <v>23</v>
       </c>
       <c r="X16">
-        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="Y16" t="s">
@@ -2852,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -2923,7 +2268,6 @@
         <v>23</v>
       </c>
       <c r="X17">
-        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="Y17" t="s">
@@ -2936,7 +2280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -3007,7 +2351,6 @@
         <v>23</v>
       </c>
       <c r="X18">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="Y18" t="s">
@@ -3020,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -3091,7 +2434,6 @@
         <v>23</v>
       </c>
       <c r="X19">
-        <f t="shared" si="1"/>
         <v>2.925</v>
       </c>
       <c r="Y19" t="s">
@@ -3104,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3174,7 +2516,9 @@
       <c r="W20" t="s">
         <v>23</v>
       </c>
-      <c r="X20"/>
+      <c r="X20" t="s">
+        <v>23</v>
+      </c>
       <c r="Y20" t="s">
         <v>23</v>
       </c>
@@ -3185,7 +2529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -3256,7 +2600,6 @@
         <v>23</v>
       </c>
       <c r="X21">
-        <f t="shared" ref="X20:X51" si="2">R21+S21</f>
         <v>8.4</v>
       </c>
       <c r="Y21" t="s">
@@ -3269,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -3340,7 +2683,6 @@
         <v>23</v>
       </c>
       <c r="X22">
-        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="Y22" t="s">
@@ -3353,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -3424,7 +2766,6 @@
         <v>23</v>
       </c>
       <c r="X23">
-        <f t="shared" si="2"/>
         <v>52.2</v>
       </c>
       <c r="Y23" t="s">
@@ -3437,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -3508,7 +2849,6 @@
         <v>23</v>
       </c>
       <c r="X24">
-        <f t="shared" si="2"/>
         <v>90.75</v>
       </c>
       <c r="Y24" t="s">
@@ -3521,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -3592,7 +2932,6 @@
         <v>23</v>
       </c>
       <c r="X25">
-        <f t="shared" si="2"/>
         <v>28.675</v>
       </c>
       <c r="Y25" t="s">
@@ -3605,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3675,7 +3014,9 @@
       <c r="W26" t="s">
         <v>23</v>
       </c>
-      <c r="X26"/>
+      <c r="X26" t="s">
+        <v>23</v>
+      </c>
       <c r="Y26" t="s">
         <v>23</v>
       </c>
@@ -3686,7 +3027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -3757,7 +3098,6 @@
         <v>23</v>
       </c>
       <c r="X27">
-        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="Y27" t="s">
@@ -3770,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
@@ -3841,7 +3181,6 @@
         <v>23</v>
       </c>
       <c r="X28">
-        <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
       <c r="Y28" t="s">
@@ -3854,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
@@ -3925,7 +3264,6 @@
         <v>23</v>
       </c>
       <c r="X29">
-        <f t="shared" si="2"/>
         <v>12.725</v>
       </c>
       <c r="Y29" t="s">
@@ -3938,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
@@ -4009,7 +3347,6 @@
         <v>23</v>
       </c>
       <c r="X30">
-        <f t="shared" si="2"/>
         <v>15.45</v>
       </c>
       <c r="Y30" t="s">
@@ -4022,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
@@ -4093,7 +3430,6 @@
         <v>23</v>
       </c>
       <c r="X31">
-        <f t="shared" si="2"/>
         <v>27.5</v>
       </c>
       <c r="Y31" t="s">
@@ -4106,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
       </c>
@@ -4177,7 +3513,6 @@
         <v>23</v>
       </c>
       <c r="X32">
-        <f t="shared" si="2"/>
         <v>137.5</v>
       </c>
       <c r="Y32" t="s">
@@ -4190,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -4260,7 +3595,9 @@
       <c r="W33" t="s">
         <v>23</v>
       </c>
-      <c r="X33"/>
+      <c r="X33" t="s">
+        <v>23</v>
+      </c>
       <c r="Y33" t="s">
         <v>23</v>
       </c>
@@ -4271,7 +3608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -4341,7 +3678,9 @@
       <c r="W34" t="s">
         <v>23</v>
       </c>
-      <c r="X34"/>
+      <c r="X34" t="s">
+        <v>23</v>
+      </c>
       <c r="Y34" t="s">
         <v>23</v>
       </c>
@@ -4352,7 +3691,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>27</v>
       </c>
@@ -4423,7 +3762,6 @@
         <v>23</v>
       </c>
       <c r="X35">
-        <f t="shared" si="2"/>
         <v>21.15</v>
       </c>
       <c r="Y35" t="s">
@@ -4436,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>28</v>
       </c>
@@ -4507,8 +3845,7 @@
         <v>23</v>
       </c>
       <c r="X36">
-        <f t="shared" si="2"/>
-        <v>23.55</v>
+        <v>23.549999999999997</v>
       </c>
       <c r="Y36" t="s">
         <v>23</v>
@@ -4520,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>29</v>
       </c>
@@ -4591,7 +3928,6 @@
         <v>23</v>
       </c>
       <c r="X37">
-        <f t="shared" si="2"/>
         <v>3.525</v>
       </c>
       <c r="Y37" t="s">
@@ -4604,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>30</v>
       </c>
@@ -4675,8 +4011,7 @@
         <v>23</v>
       </c>
       <c r="X38">
-        <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>15.299999999999999</v>
       </c>
       <c r="Y38" t="s">
         <v>23</v>
@@ -4688,7 +4023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>31</v>
       </c>
@@ -4759,7 +4094,6 @@
         <v>23</v>
       </c>
       <c r="X39">
-        <f t="shared" si="2"/>
         <v>2.73</v>
       </c>
       <c r="Y39" t="s">
@@ -4772,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>32</v>
       </c>
@@ -4843,8 +4177,7 @@
         <v>23</v>
       </c>
       <c r="X40">
-        <f t="shared" si="2"/>
-        <v>7.38</v>
+        <v>7.380000000000001</v>
       </c>
       <c r="Y40" t="s">
         <v>23</v>
@@ -4856,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>33</v>
       </c>
@@ -4927,7 +4260,6 @@
         <v>23</v>
       </c>
       <c r="X41">
-        <f t="shared" si="2"/>
         <v>5.46</v>
       </c>
       <c r="Y41" t="s">
@@ -4940,7 +4272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>34</v>
       </c>
@@ -5011,7 +4343,6 @@
         <v>23</v>
       </c>
       <c r="X42">
-        <f t="shared" si="2"/>
         <v>3.21</v>
       </c>
       <c r="Y42" t="s">
@@ -5024,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>35</v>
       </c>
@@ -5095,8 +4426,7 @@
         <v>23</v>
       </c>
       <c r="X43">
-        <f t="shared" si="2"/>
-        <v>7.86</v>
+        <v>7.859999999999999</v>
       </c>
       <c r="Y43" t="s">
         <v>23</v>
@@ -5108,7 +4438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>36</v>
       </c>
@@ -5179,8 +4509,7 @@
         <v>23</v>
       </c>
       <c r="X44">
-        <f t="shared" si="2"/>
-        <v>5.94</v>
+        <v>5.9399999999999995</v>
       </c>
       <c r="Y44" t="s">
         <v>23</v>
@@ -5192,7 +4521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -5262,7 +4591,9 @@
       <c r="W45" t="s">
         <v>23</v>
       </c>
-      <c r="X45"/>
+      <c r="X45" t="s">
+        <v>23</v>
+      </c>
       <c r="Y45" t="s">
         <v>23</v>
       </c>
@@ -5273,7 +4604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -5343,7 +4674,9 @@
       <c r="W46" t="s">
         <v>23</v>
       </c>
-      <c r="X46"/>
+      <c r="X46" t="s">
+        <v>23</v>
+      </c>
       <c r="Y46" t="s">
         <v>23</v>
       </c>
@@ -5354,7 +4687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>37</v>
       </c>
@@ -5425,7 +4758,6 @@
         <v>23</v>
       </c>
       <c r="X47">
-        <f t="shared" si="2"/>
         <v>60.4</v>
       </c>
       <c r="Y47" t="s">
@@ -5438,7 +4770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>38</v>
       </c>
@@ -5509,7 +4841,6 @@
         <v>23</v>
       </c>
       <c r="X48">
-        <f t="shared" si="2"/>
         <v>73.4</v>
       </c>
       <c r="Y48" t="s">
@@ -5522,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>39</v>
       </c>
@@ -5593,7 +4924,6 @@
         <v>23</v>
       </c>
       <c r="X49">
-        <f t="shared" si="2"/>
         <v>66.9</v>
       </c>
       <c r="Y49" t="s">
@@ -5606,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>40</v>
       </c>
@@ -5677,7 +5007,6 @@
         <v>23</v>
       </c>
       <c r="X50">
-        <f t="shared" si="2"/>
         <v>16.15</v>
       </c>
       <c r="Y50" t="s">
@@ -5690,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -5760,7 +5089,9 @@
       <c r="W51" t="s">
         <v>23</v>
       </c>
-      <c r="X51"/>
+      <c r="X51" t="s">
+        <v>23</v>
+      </c>
       <c r="Y51" t="s">
         <v>23</v>
       </c>
@@ -5771,7 +5102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>41</v>
       </c>
@@ -5842,7 +5173,6 @@
         <v>23</v>
       </c>
       <c r="X52">
-        <f t="shared" ref="X52:X83" si="3">R52+S52</f>
         <v>65.7</v>
       </c>
       <c r="Y52" t="s">
@@ -5855,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>42</v>
       </c>
@@ -5926,7 +5256,6 @@
         <v>23</v>
       </c>
       <c r="X53">
-        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="Y53" t="s">
@@ -5939,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>43</v>
       </c>
@@ -6010,7 +5339,6 @@
         <v>23</v>
       </c>
       <c r="X54">
-        <f t="shared" si="3"/>
         <v>84.1</v>
       </c>
       <c r="Y54" t="s">
@@ -6023,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>44</v>
       </c>
@@ -6094,7 +5422,6 @@
         <v>23</v>
       </c>
       <c r="X55">
-        <f t="shared" si="3"/>
         <v>133.1</v>
       </c>
       <c r="Y55" t="s">
@@ -6107,7 +5434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -6177,7 +5504,9 @@
       <c r="W56" t="s">
         <v>23</v>
       </c>
-      <c r="X56"/>
+      <c r="X56" t="s">
+        <v>23</v>
+      </c>
       <c r="Y56" t="s">
         <v>23</v>
       </c>
@@ -6188,7 +5517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -6258,7 +5587,9 @@
       <c r="W57" t="s">
         <v>23</v>
       </c>
-      <c r="X57"/>
+      <c r="X57" t="s">
+        <v>23</v>
+      </c>
       <c r="Y57" t="s">
         <v>23</v>
       </c>
@@ -6269,7 +5600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>45</v>
       </c>
@@ -6340,7 +5671,6 @@
         <v>23</v>
       </c>
       <c r="X58">
-        <f t="shared" si="3"/>
         <v>43.4</v>
       </c>
       <c r="Y58" t="s">
@@ -6353,7 +5683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>46</v>
       </c>
@@ -6424,7 +5754,6 @@
         <v>23</v>
       </c>
       <c r="X59">
-        <f t="shared" si="3"/>
         <v>26.3</v>
       </c>
       <c r="Y59" t="s">
@@ -6437,7 +5766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>47</v>
       </c>
@@ -6508,7 +5837,6 @@
         <v>23</v>
       </c>
       <c r="X60">
-        <f t="shared" si="3"/>
         <v>66.75</v>
       </c>
       <c r="Y60" t="s">
@@ -6521,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>48</v>
       </c>
@@ -6592,7 +5920,6 @@
         <v>23</v>
       </c>
       <c r="X61">
-        <f t="shared" si="3"/>
         <v>35.9</v>
       </c>
       <c r="Y61" t="s">
@@ -6605,7 +5932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>49</v>
       </c>
@@ -6676,7 +6003,6 @@
         <v>23</v>
       </c>
       <c r="X62">
-        <f t="shared" si="3"/>
         <v>35.65</v>
       </c>
       <c r="Y62" t="s">
@@ -6689,7 +6015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>50</v>
       </c>
@@ -6760,7 +6086,6 @@
         <v>23</v>
       </c>
       <c r="X63">
-        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="Y63" t="s">
@@ -6773,7 +6098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>51</v>
       </c>
@@ -6844,7 +6169,6 @@
         <v>23</v>
       </c>
       <c r="X64">
-        <f t="shared" si="3"/>
         <v>140.25</v>
       </c>
       <c r="Y64" t="s">
@@ -6857,7 +6181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -6927,7 +6251,9 @@
       <c r="W65" t="s">
         <v>23</v>
       </c>
-      <c r="X65"/>
+      <c r="X65" t="s">
+        <v>23</v>
+      </c>
       <c r="Y65" t="s">
         <v>23</v>
       </c>
@@ -6938,7 +6264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>52</v>
       </c>
@@ -7009,7 +6335,6 @@
         <v>23</v>
       </c>
       <c r="X66">
-        <f t="shared" si="3"/>
         <v>56.25</v>
       </c>
       <c r="Y66" t="s">
@@ -7022,7 +6347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>53</v>
       </c>
@@ -7093,7 +6418,6 @@
         <v>23</v>
       </c>
       <c r="X67">
-        <f t="shared" si="3"/>
         <v>156</v>
       </c>
       <c r="Y67" t="s">
@@ -7106,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>54</v>
       </c>
@@ -7177,7 +6501,6 @@
         <v>23</v>
       </c>
       <c r="X68">
-        <f t="shared" si="3"/>
         <v>53.5</v>
       </c>
       <c r="Y68" t="s">
@@ -7190,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>55</v>
       </c>
@@ -7261,7 +6584,6 @@
         <v>23</v>
       </c>
       <c r="X69">
-        <f t="shared" si="3"/>
         <v>130.5</v>
       </c>
       <c r="Y69" t="s">
@@ -7274,7 +6596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -7344,7 +6666,9 @@
       <c r="W70" t="s">
         <v>23</v>
       </c>
-      <c r="X70"/>
+      <c r="X70" t="s">
+        <v>23</v>
+      </c>
       <c r="Y70" t="s">
         <v>23</v>
       </c>
@@ -7355,7 +6679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -7425,7 +6749,9 @@
       <c r="W71" t="s">
         <v>23</v>
       </c>
-      <c r="X71"/>
+      <c r="X71" t="s">
+        <v>23</v>
+      </c>
       <c r="Y71" t="s">
         <v>23</v>
       </c>
@@ -7436,7 +6762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>56</v>
       </c>
@@ -7507,7 +6833,6 @@
         <v>23</v>
       </c>
       <c r="X72">
-        <f t="shared" si="3"/>
         <v>73.4</v>
       </c>
       <c r="Y72" t="s">
@@ -7520,7 +6845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>57</v>
       </c>
@@ -7591,7 +6916,6 @@
         <v>23</v>
       </c>
       <c r="X73">
-        <f t="shared" si="3"/>
         <v>71.25</v>
       </c>
       <c r="Y73" t="s">
@@ -7604,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>58</v>
       </c>
@@ -7675,7 +6999,6 @@
         <v>23</v>
       </c>
       <c r="X74">
-        <f t="shared" si="3"/>
         <v>214.75</v>
       </c>
       <c r="Y74" t="s">
@@ -7688,7 +7011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>59</v>
       </c>
@@ -7759,7 +7082,6 @@
         <v>23</v>
       </c>
       <c r="X75">
-        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="Y75" t="s">
@@ -7772,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -7842,7 +7164,9 @@
       <c r="W76" t="s">
         <v>23</v>
       </c>
-      <c r="X76"/>
+      <c r="X76" t="s">
+        <v>23</v>
+      </c>
       <c r="Y76" t="s">
         <v>23</v>
       </c>
@@ -7853,7 +7177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -7923,7 +7247,9 @@
       <c r="W77" t="s">
         <v>23</v>
       </c>
-      <c r="X77"/>
+      <c r="X77" t="s">
+        <v>23</v>
+      </c>
       <c r="Y77" t="s">
         <v>23</v>
       </c>
@@ -7934,7 +7260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>60</v>
       </c>
@@ -8005,7 +7331,6 @@
         <v>23</v>
       </c>
       <c r="X78">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="Y78" t="s">
@@ -8018,7 +7343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>61</v>
       </c>
@@ -8089,7 +7414,6 @@
         <v>23</v>
       </c>
       <c r="X79">
-        <f t="shared" si="3"/>
         <v>18.75</v>
       </c>
       <c r="Y79" t="s">
@@ -8102,7 +7426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>62</v>
       </c>
@@ -8173,7 +7497,6 @@
         <v>23</v>
       </c>
       <c r="X80">
-        <f t="shared" si="3"/>
         <v>2230</v>
       </c>
       <c r="Y80" t="s">
@@ -8186,7 +7509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>63</v>
       </c>
@@ -8257,7 +7580,6 @@
         <v>23</v>
       </c>
       <c r="X81">
-        <f t="shared" si="3"/>
         <v>3345</v>
       </c>
       <c r="Y81" t="s">
@@ -8270,7 +7592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>64</v>
       </c>
@@ -8341,7 +7663,6 @@
         <v>23</v>
       </c>
       <c r="X82">
-        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="Y82" t="s">
@@ -8354,7 +7675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>65</v>
       </c>
@@ -8425,7 +7746,6 @@
         <v>23</v>
       </c>
       <c r="X83">
-        <f t="shared" si="3"/>
         <v>1083</v>
       </c>
       <c r="Y83" t="s">
@@ -8438,7 +7758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>66</v>
       </c>
@@ -8509,7 +7829,6 @@
         <v>23</v>
       </c>
       <c r="X84">
-        <f t="shared" ref="X84:X115" si="4">R84+S84</f>
         <v>112.9</v>
       </c>
       <c r="Y84" t="s">
@@ -8522,7 +7841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>67</v>
       </c>
@@ -8593,7 +7912,6 @@
         <v>23</v>
       </c>
       <c r="X85">
-        <f t="shared" si="4"/>
         <v>61.7</v>
       </c>
       <c r="Y85" t="s">
@@ -8606,7 +7924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>68</v>
       </c>
@@ -8677,7 +7995,6 @@
         <v>23</v>
       </c>
       <c r="X86">
-        <f t="shared" si="4"/>
         <v>530</v>
       </c>
       <c r="Y86" t="s">
@@ -8690,7 +8007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>69</v>
       </c>
@@ -8761,7 +8078,6 @@
         <v>23</v>
       </c>
       <c r="X87">
-        <f t="shared" si="4"/>
         <v>213</v>
       </c>
       <c r="Y87" t="s">
@@ -8774,7 +8090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>70</v>
       </c>
@@ -8845,7 +8161,6 @@
         <v>23</v>
       </c>
       <c r="X88">
-        <f t="shared" si="4"/>
         <v>59.6</v>
       </c>
       <c r="Y88" t="s">
@@ -8858,7 +8173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>71</v>
       </c>
@@ -8929,7 +8244,6 @@
         <v>23</v>
       </c>
       <c r="X89">
-        <f t="shared" si="4"/>
         <v>745</v>
       </c>
       <c r="Y89" t="s">
@@ -8942,7 +8256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>72</v>
       </c>
@@ -9013,7 +8327,6 @@
         <v>23</v>
       </c>
       <c r="X90">
-        <f t="shared" si="4"/>
         <v>1234</v>
       </c>
       <c r="Y90" t="s">
@@ -9026,7 +8339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>73</v>
       </c>
@@ -9097,7 +8410,6 @@
         <v>23</v>
       </c>
       <c r="X91">
-        <f t="shared" si="4"/>
         <v>413.5</v>
       </c>
       <c r="Y91" t="s">
@@ -9110,7 +8422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>74</v>
       </c>
@@ -9181,7 +8493,6 @@
         <v>23</v>
       </c>
       <c r="X92">
-        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="Y92" t="s">
@@ -9194,7 +8505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>75</v>
       </c>
@@ -9265,7 +8576,6 @@
         <v>23</v>
       </c>
       <c r="X93">
-        <f t="shared" si="4"/>
         <v>361</v>
       </c>
       <c r="Y93" t="s">
@@ -9278,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -9348,7 +8658,9 @@
       <c r="W94" t="s">
         <v>23</v>
       </c>
-      <c r="X94"/>
+      <c r="X94" t="s">
+        <v>23</v>
+      </c>
       <c r="Y94" t="s">
         <v>23</v>
       </c>
@@ -9359,7 +8671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>76</v>
       </c>
@@ -9430,7 +8742,6 @@
         <v>23</v>
       </c>
       <c r="X95">
-        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="Y95" t="s">
@@ -9443,7 +8754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>77</v>
       </c>
@@ -9514,7 +8825,6 @@
         <v>23</v>
       </c>
       <c r="X96">
-        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="Y96" t="s">
@@ -9527,7 +8837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>78</v>
       </c>
@@ -9598,7 +8908,6 @@
         <v>23</v>
       </c>
       <c r="X97">
-        <f t="shared" si="4"/>
         <v>802.5</v>
       </c>
       <c r="Y97" t="s">
@@ -9611,7 +8920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>79</v>
       </c>
@@ -9682,7 +8991,6 @@
         <v>23</v>
       </c>
       <c r="X98">
-        <f t="shared" si="4"/>
         <v>1417.5</v>
       </c>
       <c r="Y98" t="s">
@@ -9695,7 +9003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>80</v>
       </c>
@@ -9766,7 +9074,6 @@
         <v>23</v>
       </c>
       <c r="X99">
-        <f t="shared" si="4"/>
         <v>65.75</v>
       </c>
       <c r="Y99" t="s">
@@ -9779,7 +9086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>81</v>
       </c>
@@ -9850,7 +9157,6 @@
         <v>23</v>
       </c>
       <c r="X100">
-        <f t="shared" si="4"/>
         <v>396.5</v>
       </c>
       <c r="Y100" t="s">
@@ -9863,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>82</v>
       </c>
@@ -9934,7 +9240,6 @@
         <v>23</v>
       </c>
       <c r="X101">
-        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="Y101" t="s">
@@ -9947,7 +9252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>83</v>
       </c>
@@ -10018,7 +9323,6 @@
         <v>23</v>
       </c>
       <c r="X102">
-        <f t="shared" si="4"/>
         <v>206.4</v>
       </c>
       <c r="Y102" t="s">
@@ -10031,7 +9335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>84</v>
       </c>
@@ -10102,7 +9406,6 @@
         <v>23</v>
       </c>
       <c r="X103">
-        <f t="shared" si="4"/>
         <v>42.75</v>
       </c>
       <c r="Y103" t="s">
@@ -10115,7 +9418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>85</v>
       </c>
@@ -10186,7 +9489,6 @@
         <v>23</v>
       </c>
       <c r="X104">
-        <f t="shared" si="4"/>
         <v>70.9</v>
       </c>
       <c r="Y104" t="s">
@@ -10199,7 +9501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>86</v>
       </c>
@@ -10270,7 +9572,6 @@
         <v>23</v>
       </c>
       <c r="X105">
-        <f t="shared" si="4"/>
         <v>396.5</v>
       </c>
       <c r="Y105" t="s">
@@ -10283,7 +9584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -10353,7 +9654,9 @@
       <c r="W106" t="s">
         <v>23</v>
       </c>
-      <c r="X106"/>
+      <c r="X106" t="s">
+        <v>23</v>
+      </c>
       <c r="Y106" t="s">
         <v>23</v>
       </c>
@@ -10364,7 +9667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>87</v>
       </c>
@@ -10435,7 +9738,6 @@
         <v>23</v>
       </c>
       <c r="X107">
-        <f t="shared" si="4"/>
         <v>27.6</v>
       </c>
       <c r="Y107" t="s">
@@ -10448,7 +9750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>88</v>
       </c>
@@ -10519,7 +9821,6 @@
         <v>23</v>
       </c>
       <c r="X108">
-        <f t="shared" si="4"/>
         <v>21.6</v>
       </c>
       <c r="Y108" t="s">
@@ -10532,7 +9833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>89</v>
       </c>
@@ -10603,7 +9904,6 @@
         <v>23</v>
       </c>
       <c r="X109">
-        <f t="shared" si="4"/>
         <v>13.2</v>
       </c>
       <c r="Y109" t="s">
@@ -10616,7 +9916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>90</v>
       </c>
@@ -10687,7 +9987,6 @@
         <v>23</v>
       </c>
       <c r="X110">
-        <f t="shared" si="4"/>
         <v>1425</v>
       </c>
       <c r="Y110" t="s">
@@ -10700,7 +9999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>91</v>
       </c>
@@ -10771,7 +10070,6 @@
         <v>23</v>
       </c>
       <c r="X111">
-        <f t="shared" si="4"/>
         <v>24.725</v>
       </c>
       <c r="Y111" t="s">
@@ -10784,7 +10082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>92</v>
       </c>
@@ -10855,7 +10153,6 @@
         <v>23</v>
       </c>
       <c r="X112">
-        <f t="shared" si="4"/>
         <v>77.25</v>
       </c>
       <c r="Y112" t="s">
@@ -10868,7 +10165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>93</v>
       </c>
@@ -10939,7 +10236,6 @@
         <v>23</v>
       </c>
       <c r="X113">
-        <f t="shared" si="4"/>
         <v>63.9</v>
       </c>
       <c r="Y113" t="s">
@@ -10952,7 +10248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>94</v>
       </c>
@@ -11023,7 +10319,6 @@
         <v>23</v>
       </c>
       <c r="X114">
-        <f t="shared" si="4"/>
         <v>11.075</v>
       </c>
       <c r="Y114" t="s">
@@ -11036,7 +10331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>95</v>
       </c>
@@ -11107,7 +10402,6 @@
         <v>23</v>
       </c>
       <c r="X115">
-        <f t="shared" si="4"/>
         <v>12.325</v>
       </c>
       <c r="Y115" t="s">
@@ -11120,7 +10414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>96</v>
       </c>
@@ -11191,7 +10485,6 @@
         <v>23</v>
       </c>
       <c r="X116">
-        <f>R116+S116</f>
         <v>295.5</v>
       </c>
       <c r="Y116" t="s">
@@ -11204,7 +10497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>97</v>
       </c>
@@ -11275,7 +10568,6 @@
         <v>23</v>
       </c>
       <c r="X117">
-        <f>R117+S117</f>
         <v>229.5</v>
       </c>
       <c r="Y117" t="s">
@@ -11288,7 +10580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>98</v>
       </c>
@@ -11359,7 +10651,6 @@
         <v>23</v>
       </c>
       <c r="X118">
-        <f>R118+S118</f>
         <v>355.5</v>
       </c>
       <c r="Y118" t="s">
@@ -11372,7 +10663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>99</v>
       </c>
@@ -11443,7 +10734,6 @@
         <v>23</v>
       </c>
       <c r="X119">
-        <f>R119+S119</f>
         <v>112.5</v>
       </c>
       <c r="Y119" t="s">
@@ -11456,7 +10746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -11526,7 +10816,9 @@
       <c r="W120" t="s">
         <v>23</v>
       </c>
-      <c r="X120"/>
+      <c r="X120" t="s">
+        <v>23</v>
+      </c>
       <c r="Y120" t="s">
         <v>23</v>
       </c>
@@ -11537,7 +10829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>100</v>
       </c>
@@ -11608,8 +10900,7 @@
         <v>23</v>
       </c>
       <c r="X121">
-        <f>R121+S121</f>
-        <v>11.85</v>
+        <v>11.850000000000001</v>
       </c>
       <c r="Y121" t="s">
         <v>23</v>
@@ -11621,7 +10912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>101</v>
       </c>
@@ -11692,7 +10983,6 @@
         <v>23</v>
       </c>
       <c r="X122">
-        <f>R122+S122</f>
         <v>3.3</v>
       </c>
       <c r="Y122" t="s">
@@ -11705,7 +10995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>102</v>
       </c>
@@ -11776,7 +11066,6 @@
         <v>23</v>
       </c>
       <c r="X123">
-        <f>R123+S123</f>
         <v>25.8</v>
       </c>
       <c r="Y123" t="s">
@@ -11789,7 +11078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>103</v>
       </c>
@@ -11860,8 +11149,7 @@
         <v>23</v>
       </c>
       <c r="X124">
-        <f>R124+S124</f>
-        <v>30.9</v>
+        <v>30.900000000000002</v>
       </c>
       <c r="Y124" t="s">
         <v>23</v>
@@ -11873,7 +11161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>104</v>
       </c>
@@ -11944,7 +11232,6 @@
         <v>23</v>
       </c>
       <c r="X125">
-        <f>R125+S125</f>
         <v>19.05</v>
       </c>
       <c r="Y125" t="s">
@@ -11957,7 +11244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:27">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>105</v>
       </c>
@@ -12028,7 +11315,6 @@
         <v>23</v>
       </c>
       <c r="X126">
-        <f>R126+S126</f>
         <v>3.6</v>
       </c>
       <c r="Y126" t="s">
@@ -12041,7 +11327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:27">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>106</v>
       </c>
@@ -12112,7 +11398,6 @@
         <v>23</v>
       </c>
       <c r="X127">
-        <f>R127+S127</f>
         <v>96</v>
       </c>
       <c r="Y127" t="s">
@@ -12125,7 +11410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>107</v>
       </c>
@@ -12196,7 +11481,6 @@
         <v>23</v>
       </c>
       <c r="X128">
-        <f>R128+S128</f>
         <v>180</v>
       </c>
       <c r="Y128" t="s">
@@ -12211,27 +11495,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="9"/>
   <cols>
     <col min="6" max="6" width="25.4285714285714" customWidth="1"/>
     <col min="24" max="24" width="17.4285714285714" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>